--- a/xlsx/yaroslavl.xlsx
+++ b/xlsx/yaroslavl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,77 +461,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>962500</v>
+        <v>1260045</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/alsvin/</t>
+          <t>https://ac-magistral.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>962500</t>
+          <t>1260045</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/alsvin/</t>
+          <t>https://ac-magistral.ru/auto/belgee/x50/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1286945</v>
+        <v>1554405</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs35_plus/</t>
+          <t>https://ac-magistral.ru/auto/belgee/x70/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1286945</t>
+          <t>1554405</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs35_plus/</t>
+          <t>https://ac-magistral.ru/auto/belgee/x70/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -541,32 +541,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1204445</v>
+        <v>962500</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs55/</t>
+          <t>https://ac-magistral.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1204445</t>
+          <t>962500</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs55/</t>
+          <t>https://ac-magistral.ru/auto/changan/alsvin/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -576,32 +576,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1446445</v>
+        <v>1286945</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs55_plus/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1446445</t>
+          <t>1286945</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs55_plus/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -611,32 +611,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS75</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>769945</v>
+        <v>1204445</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs75/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>769945</t>
+          <t>1204445</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs75/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -646,102 +646,102 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1358445</v>
+        <v>1446445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs75fl/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1358445</t>
+          <t>1446445</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/changan/cs75fl/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>CS75</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1540000</v>
+        <v>769945</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/arrizo_8/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs75/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>769945</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/arrizo_8/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs75/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1121945</v>
+        <v>1358445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1121945</t>
+          <t>1358445</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://ac-magistral.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -751,32 +751,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tiggo 4 New</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1398000</v>
+        <v>1540000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_4/</t>
+          <t>https://ac-magistral.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1398000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_4/</t>
+          <t>https://ac-magistral.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -786,32 +786,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1166000</v>
+        <v>1121945</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1166000</t>
+          <t>1121945</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -821,32 +821,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>676445</v>
+        <v>1398000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>676445</t>
+          <t>1398000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -856,32 +856,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1413500</v>
+        <v>1166000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1413500</t>
+          <t>1166000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -891,32 +891,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1551000</v>
+        <v>676445</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1551000</t>
+          <t>676445</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,32 +926,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1523500</v>
+        <v>1413500</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1523500</t>
+          <t>1413500</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -961,32 +961,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1501500</v>
+        <v>1551000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1501500</t>
+          <t>1551000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1886500</v>
+        <v>1523500</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1886500</t>
+          <t>1523500</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2118050</v>
+        <v>1501500</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2118050</t>
+          <t>1501500</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1066,102 +1066,102 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2288000</v>
+        <v>1886500</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2288000</t>
+          <t>1886500</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>524645</v>
+        <v>2118050</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chevrolet/cobalt/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>524645</t>
+          <t>2118050</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chevrolet/cobalt/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>484495</v>
+        <v>2288000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chevrolet/nexia/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>484495</t>
+          <t>2288000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chevrolet/nexia/</t>
+          <t>https://ac-magistral.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1171,242 +1171,242 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>522995</v>
+        <v>524645</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chevrolet/spark/</t>
+          <t>https://ac-magistral.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>522995</t>
+          <t>524645</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/chevrolet/spark/</t>
+          <t>https://ac-magistral.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1259500</v>
+        <v>484495</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/dfm/580/</t>
+          <t>https://ac-magistral.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1259500</t>
+          <t>484495</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/dfm/580/</t>
+          <t>https://ac-magistral.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>675950</v>
+        <v>522995</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/dfm/ax7/</t>
+          <t>https://ac-magistral.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>675950</t>
+          <t>522995</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/dfm/ax7/</t>
+          <t>https://ac-magistral.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>304700</v>
+        <v>1259500</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/datsun/mi-do/</t>
+          <t>https://ac-magistral.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>304700</t>
+          <t>1259500</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/datsun/mi-do/</t>
+          <t>https://ac-magistral.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>292050</v>
+        <v>675950</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/datsun/on-do/</t>
+          <t>https://ac-magistral.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>292050</t>
+          <t>675950</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/datsun/on-do/</t>
+          <t>https://ac-magistral.ru/auto/dfm/ax7/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1683000</v>
+        <v>304700</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/exeed/lx/</t>
+          <t>https://ac-magistral.ru/auto/datsun/mi-do/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1683000</t>
+          <t>304700</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/exeed/lx/</t>
+          <t>https://ac-magistral.ru/auto/datsun/mi-do/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2343000</v>
+        <v>292050</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/exeed/txl/</t>
+          <t>https://ac-magistral.ru/auto/datsun/on-do/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2343000</t>
+          <t>292050</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/exeed/txl/</t>
+          <t>https://ac-magistral.ru/auto/datsun/on-do/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1416,102 +1416,102 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3575000</v>
+        <v>1683000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/exeed/vx/</t>
+          <t>https://ac-magistral.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3575000</t>
+          <t>1683000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/exeed/vx/</t>
+          <t>https://ac-magistral.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1347500</v>
+        <v>2343000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/bestune_b70/</t>
+          <t>https://ac-magistral.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1347500</t>
+          <t>2343000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/bestune_b70/</t>
+          <t>https://ac-magistral.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1326050</v>
+        <v>3575000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/bestune_t55/</t>
+          <t>https://ac-magistral.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1326050</t>
+          <t>3575000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/bestune_t55/</t>
+          <t>https://ac-magistral.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1521,32 +1521,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1575200</v>
+        <v>1347500</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/besturn_t77/</t>
+          <t>https://ac-magistral.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1575200</t>
+          <t>1347500</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/besturn_t77/</t>
+          <t>https://ac-magistral.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1556,32 +1556,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1690150</v>
+        <v>1326050</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/bestune_t99/</t>
+          <t>https://ac-magistral.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1690150</t>
+          <t>1326050</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/bestune_t99/</t>
+          <t>https://ac-magistral.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1591,32 +1591,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>765600</v>
+        <v>1575200</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/x40/</t>
+          <t>https://ac-magistral.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>765600</t>
+          <t>1575200</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/x40/</t>
+          <t>https://ac-magistral.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1626,137 +1626,137 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>829400</v>
+        <v>1690150</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/x80/</t>
+          <t>https://ac-magistral.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>829400</t>
+          <t>1690150</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/faw/x80/</t>
+          <t>https://ac-magistral.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1264450</v>
+        <v>765600</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/gac/gs3/</t>
+          <t>https://ac-magistral.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1264450</t>
+          <t>765600</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/gac/gs3/</t>
+          <t>https://ac-magistral.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1225945</v>
+        <v>829400</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/atlas_1/</t>
+          <t>https://ac-magistral.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1225945</t>
+          <t>829400</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/atlas_1/</t>
+          <t>https://ac-magistral.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1757245</v>
+        <v>1264450</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/atlas/</t>
+          <t>https://ac-magistral.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1757245</t>
+          <t>1264450</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/atlas/</t>
+          <t>https://ac-magistral.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1766,32 +1766,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1520195</v>
+        <v>1225945</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/atlas_pro/</t>
+          <t>https://ac-magistral.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1520195</t>
+          <t>1225945</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/atlas_pro/</t>
+          <t>https://ac-magistral.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1801,32 +1801,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1260045</v>
+        <v>1757245</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/belgee_x50/</t>
+          <t>https://ac-magistral.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1260045</t>
+          <t>1757245</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/belgee_x50/</t>
+          <t>https://ac-magistral.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1836,32 +1836,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1289745</v>
+        <v>1520195</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/coolray_1/</t>
+          <t>https://ac-magistral.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1289745</t>
+          <t>1520195</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/coolray_1/</t>
+          <t>https://ac-magistral.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1871,32 +1871,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1435495</v>
+        <v>1289745</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/coolray/</t>
+          <t>https://ac-magistral.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1435495</t>
+          <t>1289745</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/coolray/</t>
+          <t>https://ac-magistral.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1105495</v>
+        <v>1435495</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/emgrand/</t>
+          <t>https://ac-magistral.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1105495</t>
+          <t>1435495</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/emgrand/</t>
+          <t>https://ac-magistral.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1941,67 +1941,67 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2582245</v>
+        <v>1105495</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/monjaro/</t>
+          <t>https://ac-magistral.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2582245</t>
+          <t>1105495</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/geely/monjaro/</t>
+          <t>https://ac-magistral.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1676950</v>
+        <v>2582245</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/dargo/</t>
+          <t>https://ac-magistral.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1676950</t>
+          <t>2582245</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/dargo/</t>
+          <t>https://ac-magistral.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2011,32 +2011,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1319450</v>
+        <v>1676950</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/f7/</t>
+          <t>https://ac-magistral.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1319450</t>
+          <t>1676950</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/f7/</t>
+          <t>https://ac-magistral.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2046,32 +2046,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1346950</v>
+        <v>1319450</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/f7x/</t>
+          <t>https://ac-magistral.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1346950</t>
+          <t>1319450</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/f7x/</t>
+          <t>https://ac-magistral.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2081,32 +2081,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>620400</v>
+        <v>1346950</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h2/</t>
+          <t>https://ac-magistral.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>620400</t>
+          <t>1346950</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h2/</t>
+          <t>https://ac-magistral.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2116,32 +2116,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1456770</v>
+        <v>620400</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h3/</t>
+          <t>https://ac-magistral.ru/auto/haval/h2/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1456770</t>
+          <t>620400</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h3/</t>
+          <t>https://ac-magistral.ru/auto/haval/h2/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2151,32 +2151,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>785950</v>
+        <v>1456770</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h5_i/</t>
+          <t>https://ac-magistral.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>785950</t>
+          <t>1456770</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h5_i/</t>
+          <t>https://ac-magistral.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2186,32 +2186,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>H5 New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2034450</v>
+        <v>785950</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h5/</t>
+          <t>https://ac-magistral.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2034450</t>
+          <t>785950</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h5/</t>
+          <t>https://ac-magistral.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>631400</v>
+        <v>2034450</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h6/</t>
+          <t>https://ac-magistral.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>631400</t>
+          <t>2034450</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h6/</t>
+          <t>https://ac-magistral.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2254450</v>
+        <v>631400</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h9/</t>
+          <t>https://ac-magistral.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2254450</t>
+          <t>631400</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/h9/</t>
+          <t>https://ac-magistral.ru/auto/haval/h6/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1071950</v>
+        <v>2254450</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/jolion_1/</t>
+          <t>https://ac-magistral.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1071950</t>
+          <t>2254450</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/jolion_1/</t>
+          <t>https://ac-magistral.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1099450</v>
+        <v>1071950</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/jolion/</t>
+          <t>https://ac-magistral.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1099450</t>
+          <t>1071950</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/jolion/</t>
+          <t>https://ac-magistral.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2361,67 +2361,67 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1198450</v>
+        <v>1099450</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/m6/</t>
+          <t>https://ac-magistral.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1198450</t>
+          <t>1099450</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/haval/m6/</t>
+          <t>https://ac-magistral.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1022450</v>
+        <v>1198450</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/creta/</t>
+          <t>https://ac-magistral.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1022450</t>
+          <t>1198450</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/creta/</t>
+          <t>https://ac-magistral.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2431,32 +2431,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1181950</v>
+        <v>1022450</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/elantra/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1181950</t>
+          <t>1022450</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/elantra/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2466,32 +2466,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>774400</v>
+        <v>1181950</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/solaris/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>774400</t>
+          <t>1181950</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/solaris/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2501,32 +2501,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1522950</v>
+        <v>774400</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/sonata/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1522950</t>
+          <t>774400</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/sonata/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2536,67 +2536,67 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1511950</v>
+        <v>1522950</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/tucson/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1511950</t>
+          <t>1522950</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/hyundai/tucson/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1170950</v>
+        <v>1511950</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jac/j7/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1170950</t>
+          <t>1511950</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jac/j7/</t>
+          <t>https://ac-magistral.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2606,32 +2606,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>626450</v>
+        <v>1170950</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jac/s5/</t>
+          <t>https://ac-magistral.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>626450</t>
+          <t>1170950</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jac/s5/</t>
+          <t>https://ac-magistral.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,137 +2641,137 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>978450</v>
+        <v>626450</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jac/s7/</t>
+          <t>https://ac-magistral.ru/auto/jac/s5/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>978450</t>
+          <t>626450</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jac/s7/</t>
+          <t>https://ac-magistral.ru/auto/jac/s5/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2446950</v>
+        <v>978450</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jaecoo/j8/</t>
+          <t>https://ac-magistral.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2446950</t>
+          <t>978450</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jaecoo/j8/</t>
+          <t>https://ac-magistral.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2255400</v>
+        <v>2446950</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jetour/t2/</t>
+          <t>https://ac-magistral.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2255400</t>
+          <t>2446950</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/jetour/t2/</t>
+          <t>https://ac-magistral.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1207250</v>
+        <v>2255400</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kaiyi/e5/</t>
+          <t>https://ac-magistral.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1207250</t>
+          <t>2255400</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kaiyi/e5/</t>
+          <t>https://ac-magistral.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1230900</v>
+        <v>1207250</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kaiyi/x3/</t>
+          <t>https://ac-magistral.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1230900</t>
+          <t>1207250</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kaiyi/x3/</t>
+          <t>https://ac-magistral.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,67 +2816,67 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1383195</v>
+        <v>1230900</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://ac-magistral.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1383195</t>
+          <t>1230900</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://ac-magistral.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1234695</v>
+        <v>1383195</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/ceed/</t>
+          <t>https://ac-magistral.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1234695</t>
+          <t>1383195</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/ceed/</t>
+          <t>https://ac-magistral.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,32 +2886,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1273195</v>
+        <v>1234695</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/ceed_sw/</t>
+          <t>https://ac-magistral.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1273195</t>
+          <t>1234695</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/ceed_sw/</t>
+          <t>https://ac-magistral.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,32 +2921,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1130195</v>
+        <v>1273195</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/cerato/</t>
+          <t>https://ac-magistral.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1130195</t>
+          <t>1273195</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/cerato/</t>
+          <t>https://ac-magistral.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,32 +2956,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1504195</v>
+        <v>1130195</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/k5/</t>
+          <t>https://ac-magistral.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1504195</t>
+          <t>1130195</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/k5/</t>
+          <t>https://ac-magistral.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>734195</v>
+        <v>1504195</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/picanto/</t>
+          <t>https://ac-magistral.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>734195</t>
+          <t>1504195</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/picanto/</t>
+          <t>https://ac-magistral.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,32 +3026,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1028445</v>
+        <v>734195</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/proceed/</t>
+          <t>https://ac-magistral.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1028445</t>
+          <t>734195</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/proceed/</t>
+          <t>https://ac-magistral.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3061,32 +3061,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>789195</v>
+        <v>1028445</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/rio/</t>
+          <t>https://ac-magistral.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>789195</t>
+          <t>1028445</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/rio/</t>
+          <t>https://ac-magistral.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3096,32 +3096,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>866195</v>
+        <v>789195</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/rio_x/</t>
+          <t>https://ac-magistral.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>866195</t>
+          <t>789195</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/rio_x/</t>
+          <t>https://ac-magistral.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3131,32 +3131,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>516945</v>
+        <v>866195</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/rio_x-line/</t>
+          <t>https://ac-magistral.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>516945</t>
+          <t>866195</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/rio_x-line/</t>
+          <t>https://ac-magistral.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3166,32 +3166,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1077945</v>
+        <v>516945</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/seltos/</t>
+          <t>https://ac-magistral.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1077945</t>
+          <t>516945</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/seltos/</t>
+          <t>https://ac-magistral.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,32 +3201,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2084445</v>
+        <v>1077945</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/sorento/</t>
+          <t>https://ac-magistral.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2084445</t>
+          <t>1077945</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/sorento/</t>
+          <t>https://ac-magistral.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,32 +3236,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1006445</v>
+        <v>2084445</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/soul/</t>
+          <t>https://ac-magistral.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1006445</t>
+          <t>2084445</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/soul/</t>
+          <t>https://ac-magistral.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1567445</v>
+        <v>1006445</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/sportage/</t>
+          <t>https://ac-magistral.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1567445</t>
+          <t>1006445</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/sportage/</t>
+          <t>https://ac-magistral.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,67 +3306,67 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1449195</v>
+        <v>1567445</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/xceed/</t>
+          <t>https://ac-magistral.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1449195</t>
+          <t>1567445</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/kia/xceed/</t>
+          <t>https://ac-magistral.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>520245</v>
+        <v>1449195</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_cross/</t>
+          <t>https://ac-magistral.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>520245</t>
+          <t>1449195</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_cross/</t>
+          <t>https://ac-magistral.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,32 +3376,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>428175</v>
+        <v>520245</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_hatchback/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>428175</t>
+          <t>520245</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_hatchback/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>406945</v>
+        <v>428175</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_liftback/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>406945</t>
+          <t>428175</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_liftback/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,32 +3446,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>384945</v>
+        <v>406945</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_sedan/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>384945</t>
+          <t>406945</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_sedan/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,32 +3481,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>569195</v>
+        <v>384945</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_drive_active/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>569195</t>
+          <t>384945</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_drive_active/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>395615</v>
+        <v>569195</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_universal/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>395615</t>
+          <t>569195</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/granta_universal/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>715495</v>
+        <v>395615</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/largus/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>715495</t>
+          <t>395615</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/largus/</t>
+          <t>https://ac-magistral.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>794145</v>
+        <v>715495</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/largus_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>794145</t>
+          <t>715495</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/largus_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>716045</v>
+        <v>794145</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/largus_furgon/</t>
+          <t>https://ac-magistral.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>716045</t>
+          <t>794145</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/largus_furgon/</t>
+          <t>https://ac-magistral.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>456445</v>
+        <v>716045</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://ac-magistral.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>456445</t>
+          <t>716045</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://ac-magistral.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>505395</v>
+        <v>456445</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://ac-magistral.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>505395</t>
+          <t>456445</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://ac-magistral.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>659395</v>
+        <v>505395</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/niva_travel/</t>
+          <t>https://ac-magistral.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>659395</t>
+          <t>505395</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/niva_travel/</t>
+          <t>https://ac-magistral.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>698445</v>
+        <v>659395</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>698445</t>
+          <t>659395</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>953645</v>
+        <v>698445</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>953645</t>
+          <t>698445</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>667645</v>
+        <v>953645</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>667645</t>
+          <t>953645</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>730895</v>
+        <v>667645</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>730895</t>
+          <t>667645</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>831545</v>
+        <v>730895</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>831545</t>
+          <t>730895</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>731445</v>
+        <v>831545</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>731445</t>
+          <t>831545</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sw/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>617045</v>
+        <v>731445</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>617045</t>
+          <t>731445</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_1/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>724295</v>
+        <v>617045</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_cng/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>724295</t>
+          <t>617045</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_cng/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>681945</v>
+        <v>724295</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>681945</t>
+          <t>724295</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>878845</v>
+        <v>681945</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sport/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>878845</t>
+          <t>681945</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/vesta_sport/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>608795</v>
+        <v>878845</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/xray/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>608795</t>
+          <t>878845</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/xray/</t>
+          <t>https://ac-magistral.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,67 +4146,67 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>687445</v>
+        <v>608795</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/xray_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>687445</t>
+          <t>608795</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lada/xray_cross/</t>
+          <t>https://ac-magistral.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>560945</v>
+        <v>687445</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/murman/</t>
+          <t>https://ac-magistral.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>560945</t>
+          <t>687445</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/murman/</t>
+          <t>https://ac-magistral.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>494945</v>
+        <v>560945</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/myway/</t>
+          <t>https://ac-magistral.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>494945</t>
+          <t>560945</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/myway/</t>
+          <t>https://ac-magistral.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>390445</v>
+        <v>494945</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/solano_ii/</t>
+          <t>https://ac-magistral.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>390445</t>
+          <t>494945</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/solano_ii/</t>
+          <t>https://ac-magistral.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>379445</v>
+        <v>390445</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/x50/</t>
+          <t>https://ac-magistral.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>379445</t>
+          <t>390445</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/x50/</t>
+          <t>https://ac-magistral.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>423445</v>
+        <v>379445</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/x60/</t>
+          <t>https://ac-magistral.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>423445</t>
+          <t>379445</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/x60/</t>
+          <t>https://ac-magistral.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,67 +4356,67 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>543950</v>
+        <v>423445</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/x70/</t>
+          <t>https://ac-magistral.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>543950</t>
+          <t>423445</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/lifan/x70/</t>
+          <t>https://ac-magistral.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1402445</v>
+        <v>543950</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/livan/s6pro/</t>
+          <t>https://ac-magistral.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1402445</t>
+          <t>543950</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/livan/s6pro/</t>
+          <t>https://ac-magistral.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1033945</v>
+        <v>1402445</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/livan/x3pro/</t>
+          <t>https://ac-magistral.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1033945</t>
+          <t>1402445</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/livan/x3pro/</t>
+          <t>https://ac-magistral.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,67 +4461,67 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1446445</v>
+        <v>1033945</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/livan/x6pro/</t>
+          <t>https://ac-magistral.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1446445</t>
+          <t>1033945</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/livan/x6pro/</t>
+          <t>https://ac-magistral.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1221000</v>
+        <v>1446445</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/moskvich/3/</t>
+          <t>https://ac-magistral.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1221000</t>
+          <t>1446445</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/moskvich/3/</t>
+          <t>https://ac-magistral.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,67 +4531,67 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2172500</v>
+        <v>1221000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/moskvich/3e/</t>
+          <t>https://ac-magistral.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2172500</t>
+          <t>1221000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/moskvich/3e/</t>
+          <t>https://ac-magistral.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2424950</v>
+        <v>2172500</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/murano/</t>
+          <t>https://ac-magistral.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2424950</t>
+          <t>2172500</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/murano/</t>
+          <t>https://ac-magistral.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1285350</v>
+        <v>2424950</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/qashqai/</t>
+          <t>https://ac-magistral.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1285350</t>
+          <t>2424950</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/qashqai/</t>
+          <t>https://ac-magistral.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>929500</v>
+        <v>1285350</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/terrano/</t>
+          <t>https://ac-magistral.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>929500</t>
+          <t>1285350</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/terrano/</t>
+          <t>https://ac-magistral.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,67 +4671,67 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1519100</v>
+        <v>929500</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/x-trail/</t>
+          <t>https://ac-magistral.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1519100</t>
+          <t>929500</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/nissan/x-trail/</t>
+          <t>https://ac-magistral.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1473945</v>
+        <v>1519100</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/omoda/c5/</t>
+          <t>https://ac-magistral.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1473945</t>
+          <t>1519100</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/omoda/c5/</t>
+          <t>https://ac-magistral.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,67 +4741,67 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1237445</v>
+        <v>1473945</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/omoda/s5/</t>
+          <t>https://ac-magistral.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1237445</t>
+          <t>1473945</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/omoda/s5/</t>
+          <t>https://ac-magistral.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>453750</v>
+        <v>1237445</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/ravon/nexia_r3/</t>
+          <t>https://ac-magistral.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>453750</t>
+          <t>1237445</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/ravon/nexia_r3/</t>
+          <t>https://ac-magistral.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>485650</v>
+        <v>453750</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/ravon/r2/</t>
+          <t>https://ac-magistral.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>485650</t>
+          <t>453750</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/ravon/r2/</t>
+          <t>https://ac-magistral.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,67 +4846,67 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>468050</v>
+        <v>485650</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/ravon/r4/</t>
+          <t>https://ac-magistral.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>468050</t>
+          <t>485650</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/ravon/r4/</t>
+          <t>https://ac-magistral.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1030700</v>
+        <v>468050</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/arkana/</t>
+          <t>https://ac-magistral.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1030700</t>
+          <t>468050</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/arkana/</t>
+          <t>https://ac-magistral.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>889900</v>
+        <v>1030700</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/duster/</t>
+          <t>https://ac-magistral.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>889900</t>
+          <t>1030700</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/duster/</t>
+          <t>https://ac-magistral.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,32 +4951,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>948200</v>
+        <v>889900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/kaptur/</t>
+          <t>https://ac-magistral.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>948200</t>
+          <t>889900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/kaptur/</t>
+          <t>https://ac-magistral.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>618200</v>
+        <v>948200</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/logan/</t>
+          <t>https://ac-magistral.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>618200</t>
+          <t>948200</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/logan/</t>
+          <t>https://ac-magistral.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,32 +5021,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>715550</v>
+        <v>618200</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/logan_stepway/</t>
+          <t>https://ac-magistral.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>715550</t>
+          <t>618200</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/logan_stepway/</t>
+          <t>https://ac-magistral.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,32 +5056,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>691900</v>
+        <v>715550</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/sandero/</t>
+          <t>https://ac-magistral.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>691900</t>
+          <t>715550</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/sandero/</t>
+          <t>https://ac-magistral.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5091,67 +5091,67 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>755150</v>
+        <v>691900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/sandero_stepway/</t>
+          <t>https://ac-magistral.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>755150</t>
+          <t>691900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/renault/sandero_stepway/</t>
+          <t>https://ac-magistral.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1493800</v>
+        <v>755150</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/karoq/</t>
+          <t>https://ac-magistral.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1493800</t>
+          <t>755150</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/karoq/</t>
+          <t>https://ac-magistral.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,32 +5161,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2002000</v>
+        <v>1493800</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/kodiaq/</t>
+          <t>https://ac-magistral.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2002000</t>
+          <t>1493800</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/kodiaq/</t>
+          <t>https://ac-magistral.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5196,32 +5196,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1437150</v>
+        <v>2002000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/octavia/</t>
+          <t>https://ac-magistral.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1437150</t>
+          <t>2002000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/octavia/</t>
+          <t>https://ac-magistral.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,32 +5231,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>881100</v>
+        <v>1437150</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/rapid/</t>
+          <t>https://ac-magistral.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>881100</t>
+          <t>1437150</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/rapid/</t>
+          <t>https://ac-magistral.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5266,67 +5266,67 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1862300</v>
+        <v>881100</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/superb/</t>
+          <t>https://ac-magistral.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1862300</t>
+          <t>881100</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/skoda/superb/</t>
+          <t>https://ac-magistral.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1374450</v>
+        <v>1862300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/hc/</t>
+          <t>https://ac-magistral.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1374450</t>
+          <t>1862300</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/hc/</t>
+          <t>https://ac-magistral.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5336,32 +5336,32 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1105500</v>
+        <v>1374450</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/hs/</t>
+          <t>https://ac-magistral.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1105500</t>
+          <t>1374450</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/hs/</t>
+          <t>https://ac-magistral.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5371,32 +5371,32 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1120900</v>
+        <v>1105500</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/krs/</t>
+          <t>https://ac-magistral.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1120900</t>
+          <t>1105500</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/krs/</t>
+          <t>https://ac-magistral.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5406,67 +5406,67 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1135200</v>
+        <v>1120900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/krx/</t>
+          <t>https://ac-magistral.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1135200</t>
+          <t>1120900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/solaris/krx/</t>
+          <t>https://ac-magistral.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>748000</v>
+        <v>1135200</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/uaz/hunter/</t>
+          <t>https://ac-magistral.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>748000</t>
+          <t>1135200</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/uaz/hunter/</t>
+          <t>https://ac-magistral.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5476,32 +5476,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>822250</v>
+        <v>748000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/uaz/patriot/</t>
+          <t>https://ac-magistral.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>822250</t>
+          <t>748000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/uaz/patriot/</t>
+          <t>https://ac-magistral.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,67 +5511,67 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>836000</v>
+        <v>822250</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://ac-magistral.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>836000</t>
+          <t>822250</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://ac-magistral.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>894850</v>
+        <v>836000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/jetta/</t>
+          <t>https://ac-magistral.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>894850</t>
+          <t>836000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/jetta/</t>
+          <t>https://ac-magistral.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5581,32 +5581,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>891495</v>
+        <v>894850</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/polo/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>891495</t>
+          <t>894850</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/polo/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,32 +5616,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1555895</v>
+        <v>891495</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/taos/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1555895</t>
+          <t>891495</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/taos/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,93 +5651,128 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1856745</v>
+        <v>1555895</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/tiguan/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1856745</t>
+          <t>1555895</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/volkswagen/tiguan/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>654280</v>
+        <v>1856745</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/zotye/coupa/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>654280</t>
+          <t>1856745</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://ac-magistral.ru/auto/zotye/coupa/</t>
+          <t>https://ac-magistral.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>654280</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://ac-magistral.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>654280</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://ac-magistral.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D153" t="n">
         <v>534380</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>https://ac-magistral.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>534380</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>https://ac-magistral.ru/auto/zotye/t600/</t>
         </is>
